--- a/Turma Intensivo - 439 - Noite Julho 2017/Aula 2/Soma SES Vendas trimestre 1.xlsx
+++ b/Turma Intensivo - 439 - Noite Julho 2017/Aula 2/Soma SES Vendas trimestre 1.xlsx
@@ -5,15 +5,18 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcio\Desktop\TeachX.git\trunk\Turma Intensivo - Noite Julho 2017\Aula 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcio\Desktop\TeachX.git\trunk\Turma Intensivo - 439 - Noite Julho 2017\Aula 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8610"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7545"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$3:$G$17</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
@@ -581,10 +584,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="D22" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,7 +596,7 @@
     <col min="1" max="1" width="13.5703125" style="5" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="5"/>
     <col min="3" max="3" width="33.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
@@ -630,7 +634,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -651,7 +655,7 @@
         <v>5290</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
@@ -672,7 +676,7 @@
         <v>3046.4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
@@ -693,7 +697,7 @@
         <v>8398</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -714,7 +718,7 @@
         <v>6279</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
@@ -736,7 +740,7 @@
       </c>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
@@ -758,7 +762,7 @@
       </c>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
@@ -821,7 +825,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>9</v>
       </c>
@@ -843,7 +847,7 @@
       </c>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>9</v>
       </c>
@@ -864,7 +868,7 @@
         <v>2640</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>5</v>
       </c>
@@ -885,7 +889,7 @@
         <v>2990</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>5</v>
       </c>
@@ -906,7 +910,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>9</v>
       </c>
@@ -932,7 +936,10 @@
       <c r="C19" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="3">
+        <f>SUM(D4:D17)</f>
+        <v>511</v>
+      </c>
       <c r="F19" s="2" t="s">
         <v>24</v>
       </c>
@@ -941,7 +948,10 @@
       <c r="C20" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="4"/>
+      <c r="D20" s="4">
+        <f>SUM(F4:F17)</f>
+        <v>46793.4</v>
+      </c>
       <c r="F20" s="2" t="s">
         <v>24</v>
       </c>
@@ -950,7 +960,10 @@
       <c r="C21" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="4"/>
+      <c r="D21" s="4">
+        <f>SUMIF(A4:A17,"vila mariana",F4:F17)</f>
+        <v>27210.400000000001</v>
+      </c>
       <c r="F21" s="2" t="s">
         <v>25</v>
       </c>
@@ -960,7 +973,10 @@
       <c r="C22" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="4"/>
+      <c r="D22" s="4">
+        <f>SUMIF(A4:A17,"brooklin",F4:F17)</f>
+        <v>19583</v>
+      </c>
       <c r="F22" s="2" t="s">
         <v>25</v>
       </c>
@@ -969,7 +985,10 @@
       <c r="C23" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="4"/>
+      <c r="D23" s="4">
+        <f>SUMIF(B4:B17,"janeiro",F4:F17)</f>
+        <v>26013.4</v>
+      </c>
       <c r="F23" s="2" t="s">
         <v>25</v>
       </c>
@@ -978,7 +997,10 @@
       <c r="C24" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="4"/>
+      <c r="D24" s="4">
+        <f>SUMIF(B4:B17,"fevereiro",F4:F17)</f>
+        <v>11855</v>
+      </c>
       <c r="F24" s="2" t="s">
         <v>25</v>
       </c>
@@ -987,7 +1009,10 @@
       <c r="C25" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="4"/>
+      <c r="D25" s="4">
+        <f>SUMIF(B4:B17,"março",F4:F17)</f>
+        <v>8925</v>
+      </c>
       <c r="F25" s="2" t="s">
         <v>25</v>
       </c>
@@ -996,7 +1021,10 @@
       <c r="C26" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="4"/>
+      <c r="D26" s="4">
+        <f>SUMIFS(F4:F17,A4:A17,"vila mariana",B4:B17,"fevereiro")</f>
+        <v>7805</v>
+      </c>
       <c r="F26" s="2" t="s">
         <v>26</v>
       </c>
@@ -1014,7 +1042,10 @@
       <c r="C29" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="9"/>
+      <c r="D29" s="9">
+        <f>COUNTIF(B4:B17,"janeiro")</f>
+        <v>5</v>
+      </c>
       <c r="F29" s="2" t="s">
         <v>31</v>
       </c>
@@ -1023,7 +1054,10 @@
       <c r="C30" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="9"/>
+      <c r="D30" s="9">
+        <f>SUMIF(B4:B17,"fevereiro",D4:D17)</f>
+        <v>173</v>
+      </c>
       <c r="F30" s="2" t="s">
         <v>25</v>
       </c>
@@ -1032,12 +1066,27 @@
       <c r="C31" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="9"/>
+      <c r="D31" s="9">
+        <f>COUNTA(A4:A31)</f>
+        <v>14</v>
+      </c>
       <c r="F31" s="2" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A3:G17">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Vila Mariana"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Fevereiro"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
